--- a/src/test/resources/DataProvider.xlsx
+++ b/src/test/resources/DataProvider.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar Sapkal\eclipse-workspace\2022_TestNGFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C3E79-4D04-4CB8-940A-82D1B7BB8F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAFF02-5849-4743-BDFD-B188682AB2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +42,30 @@
   </si>
   <si>
     <t>secret_sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName </t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Pin Code</t>
+  </si>
+  <si>
+    <t>Expected Error</t>
+  </si>
+  <si>
+    <t>Epic sadface: Sorry, this user has been locked out.</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>111 333</t>
   </si>
 </sst>
 </file>
@@ -380,44 +406,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528D18D9-86EF-43BC-AAE1-C9C28415D2FC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9DC06E-7598-4B2D-8076-214D10F24F88}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/DataProvider.xlsx
+++ b/src/test/resources/DataProvider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar Sapkal\eclipse-workspace\2022_TestNGFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDAFF02-5849-4743-BDFD-B188682AB2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE148277-D76D-4C82-9A46-70CD583EDF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -408,9 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -481,9 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528D18D9-86EF-43BC-AAE1-C9C28415D2FC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -537,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9DC06E-7598-4B2D-8076-214D10F24F88}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
